--- a/R/Included/New_Scoring.xlsx
+++ b/R/Included/New_Scoring.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LPersad\Documents\GitHub\Systematic_lit_review\R\Included\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrf_g\Documents\GitHub\Systematic_lit_review\R\Included\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D167625-969E-4314-955D-FA8791D6A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17400"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Torque-Force" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,25 @@
     <sheet name="ST" sheetId="7" r:id="rId7"/>
     <sheet name="Scoring flowchart" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>MRI, CSA x slice interval</t>
   </si>
@@ -293,13 +307,89 @@
   </si>
   <si>
     <t>Tendon force</t>
+  </si>
+  <si>
+    <t>[4162]</t>
+  </si>
+  <si>
+    <t>[4127]</t>
+  </si>
+  <si>
+    <t>[2995]</t>
+  </si>
+  <si>
+    <t>[2833]</t>
+  </si>
+  <si>
+    <t>[2651]</t>
+  </si>
+  <si>
+    <t>[4196]</t>
+  </si>
+  <si>
+    <t>[4040]</t>
+  </si>
+  <si>
+    <t>[2820]</t>
+  </si>
+  <si>
+    <t>[2672]</t>
+  </si>
+  <si>
+    <t>[4050]</t>
+  </si>
+  <si>
+    <t>[4204]</t>
+  </si>
+  <si>
+    <t>[2899]</t>
+  </si>
+  <si>
+    <t>[4135 2821 2938 2745]</t>
+  </si>
+  <si>
+    <t>[4128 2677 3042]</t>
+  </si>
+  <si>
+    <t>[2837 4106]</t>
+  </si>
+  <si>
+    <t>[2680 2664 2653 2649 2648]</t>
+  </si>
+  <si>
+    <t>[2677 2646]</t>
+  </si>
+  <si>
+    <t>[4070 4205]</t>
+  </si>
+  <si>
+    <t>CovidenceID</t>
+  </si>
+  <si>
+    <t>OLD_SCORE</t>
+  </si>
+  <si>
+    <t>[4162 4135 4128 2995 2837 2833 2821 2680 2677 2664 2653 2651 2649 2648
+ 2646 4196 4106 4070 4040 2938 2745 2672 4205 4050]</t>
+  </si>
+  <si>
+    <t>[2995 2677]</t>
+  </si>
+  <si>
+    <t>[2820 2899]</t>
+  </si>
+  <si>
+    <t>[3042]</t>
+  </si>
+  <si>
+    <t>StudyID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +402,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -357,7 +454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,6 +463,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,189 +767,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="103.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-    </row>
+      <c r="C20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1020,11 +1241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1135,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1380,7 @@
         <v>45</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1168,80 +1389,102 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1308,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A4:R30"/>
   <sheetViews>
     <sheetView topLeftCell="J13" workbookViewId="0">
@@ -1334,7 +1577,7 @@
     <col min="18" max="18" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>62</v>
       </c>
@@ -1345,7 +1588,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1365,7 +1608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1384,14 +1627,14 @@
       <c r="H6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1410,12 +1653,12 @@
       <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1434,50 +1677,48 @@
       <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
     </row>
     <row r="19" spans="12:18" ht="60" x14ac:dyDescent="0.25">
       <c r="L19" s="2" t="s">

--- a/R/Included/New_Scoring.xlsx
+++ b/R/Included/New_Scoring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrf_g\Documents\GitHub\Systematic_lit_review\R\Included\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp1655\Documents\GitHub\Systematic_lit_review\R\Included\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D167625-969E-4314-955D-FA8791D6A586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E909A6-16AF-4C77-8EEC-E962D73E91FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Torque-Force" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="Pa" sheetId="4" r:id="rId5"/>
     <sheet name="pcsa" sheetId="5" r:id="rId6"/>
     <sheet name="ST" sheetId="7" r:id="rId7"/>
-    <sheet name="Scoring flowchart" sheetId="8" r:id="rId8"/>
+    <sheet name="All" sheetId="9" r:id="rId8"/>
+    <sheet name="Top 8 studies" sheetId="10" r:id="rId9"/>
+    <sheet name="Scoring flowchart" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="165">
   <si>
     <t>MRI, CSA x slice interval</t>
   </si>
@@ -383,13 +385,319 @@
   </si>
   <si>
     <t>StudyID</t>
+  </si>
+  <si>
+    <t>Moment arm measurement</t>
+  </si>
+  <si>
+    <t>Muscle volume calculation</t>
+  </si>
+  <si>
+    <t>Fiber length measurement/calculation</t>
+  </si>
+  <si>
+    <t>Summary of methods</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Muscle (s)</t>
+  </si>
+  <si>
+    <t>ST value</t>
+  </si>
+  <si>
+    <r>
+      <t>(N/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>• Torque not used in calculation</t>
+  </si>
+  <si>
+    <t>• Tendon force measured via stimulation of the motor nerve.</t>
+  </si>
+  <si>
+    <t>• Moment arm not used in calculation</t>
+  </si>
+  <si>
+    <t>• Muscle volume estimated by 3D photogrammetric reconstruction</t>
+  </si>
+  <si>
+    <t>• Fascicle length calculated from measured muscle length, active force-length curve parameter FWHM and literature FWHM-optimal fiber length relationship</t>
+  </si>
+  <si>
+    <t>• Pennation angle taken from literature</t>
+  </si>
+  <si>
+    <t>• PCSA= (Muscle vol/Fiber length)*cos(pennation angle)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binder-Markey et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(17)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gracilis</t>
+  </si>
+  <si>
+    <t>• MVC torque measured using ITT to correct for muscle activation and EMG to correct for antagonist activation</t>
+  </si>
+  <si>
+    <t>• Tendon force= TQ/MA</t>
+  </si>
+  <si>
+    <t>• Moment arm measured (MRI) during rest and not corresponding to max. torque joint angle</t>
+  </si>
+  <si>
+    <t>• Muscle volume estimated by summation of MRI axial images</t>
+  </si>
+  <si>
+    <t>• Fascicle length measured (US) during max. torque trial</t>
+  </si>
+  <si>
+    <t>• Pennation angle measured during max. torque trial</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Erskine et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(7)</t>
+    </r>
+  </si>
+  <si>
+    <t>Quadriceps Femoris</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O'Brien et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <t>• Moment arm measured (MRI) during rest and corrected using literature values to reflect MVC conditions and max. torque joint angle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Erskine et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(27)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Erskine et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9)</t>
+    </r>
+  </si>
+  <si>
+    <t>2010 2009</t>
+  </si>
+  <si>
+    <t>Quadriceps Femoris Quadriceps Femoris</t>
+  </si>
+  <si>
+    <t>• Max. torque measured (percutaneous electrical stimulation) and EMG correction for antagonist activation</t>
+  </si>
+  <si>
+    <t>• Moment arm measured (MRI) during rest and corresponding to max. torque joint angle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maganaris et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(16)</t>
+    </r>
+  </si>
+  <si>
+    <t>Soleus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tibialis Anterior</t>
+  </si>
+  <si>
+    <t>• Component tendon force calculated using relative PCSA</t>
+  </si>
+  <si>
+    <t>• Moment arm measured (US) during torque trials at max. torque joint angle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kubo et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(28)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vastus Lateralis</t>
+  </si>
+  <si>
+    <t>• MVC torque measured with EMG to correct for antagonist activation</t>
+  </si>
+  <si>
+    <t>• Moment arm measured (MRI) during rest and corrected using literature values to correspond to max. torque joint angle</t>
+  </si>
+  <si>
+    <t>• Fascicle length measured (US) during rest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maden-Wilkinson et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(29)</t>
+    </r>
+  </si>
+  <si>
+    <t>• MVC torque measured using ITT to correct for muscle activation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">McPhee et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(12)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Morse et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Morse et al .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(23)</t>
+    </r>
+  </si>
+  <si>
+    <t>2007 2005</t>
+  </si>
+  <si>
+    <t>Gastrocnemius Lateralis Gastrocnemius Lateralis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +718,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -419,7 +773,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -442,11 +796,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -457,15 +840,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,10 +1284,10 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>10</v>
       </c>
     </row>
@@ -815,10 +1298,10 @@
       <c r="B3">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>9</v>
       </c>
     </row>
@@ -829,24 +1312,24 @@
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>3</v>
       </c>
     </row>
@@ -857,10 +1340,10 @@
       <c r="B6">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>9</v>
       </c>
     </row>
@@ -871,10 +1354,10 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>5</v>
       </c>
     </row>
@@ -885,10 +1368,10 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>10</v>
       </c>
     </row>
@@ -899,10 +1382,10 @@
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>12</v>
       </c>
     </row>
@@ -913,10 +1396,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>8</v>
       </c>
     </row>
@@ -927,10 +1410,10 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
@@ -941,10 +1424,10 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>8</v>
       </c>
     </row>
@@ -955,10 +1438,10 @@
       <c r="B13">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>14</v>
       </c>
     </row>
@@ -969,10 +1452,10 @@
       <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>8</v>
       </c>
     </row>
@@ -983,10 +1466,10 @@
       <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>7</v>
       </c>
     </row>
@@ -997,10 +1480,10 @@
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>4</v>
       </c>
     </row>
@@ -1011,10 +1494,10 @@
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>12</v>
       </c>
     </row>
@@ -1025,10 +1508,10 @@
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>4</v>
       </c>
     </row>
@@ -1039,10 +1522,10 @@
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>9</v>
       </c>
     </row>
@@ -1053,10 +1536,10 @@
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <v>4</v>
       </c>
     </row>
@@ -1066,495 +1549,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="106.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A4:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
@@ -1627,12 +1626,12 @@
       <c r="H6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" s="5"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1653,10 +1652,10 @@
       <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1677,10 +1676,10 @@
       <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D12">
@@ -1689,10 +1688,10 @@
       <c r="E12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I13" s="5"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14">
@@ -1701,21 +1700,21 @@
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="3" t="s">
         <v>66</v>
       </c>
@@ -1878,4 +1877,1896 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0EBCD8-4768-400C-AAFC-A7C20D0C12CC}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1EB39C-8DE6-4707-8118-C37DF6C6AE07}">
+  <dimension ref="A1:R58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="27"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="28"/>
+    </row>
+    <row r="3" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="36">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F3" s="33">
+        <v>27</v>
+      </c>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="32"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="32"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="32"/>
+    </row>
+    <row r="6" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="32"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="32"/>
+    </row>
+    <row r="7" spans="1:18" ht="202.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="32"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="32"/>
+    </row>
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="32"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="32"/>
+    </row>
+    <row r="9" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="34"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:18" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2011</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="36">
+        <v>26.5</v>
+      </c>
+      <c r="F10" s="36">
+        <v>24</v>
+      </c>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="1:18" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="1:18" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="37"/>
+    </row>
+    <row r="16" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2010</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="16">
+        <v>55</v>
+      </c>
+      <c r="F16" s="16">
+        <v>24</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="1:18" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="13">
+        <v>29.5</v>
+      </c>
+      <c r="F17" s="36">
+        <v>24</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="13">
+        <v>30.3</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="35"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="35"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="35"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="35"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="35"/>
+    </row>
+    <row r="23" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="37"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="33">
+        <v>2001</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="22">
+        <v>15</v>
+      </c>
+      <c r="F24" s="36">
+        <v>23</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="36"/>
+    </row>
+    <row r="25" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="40"/>
+    </row>
+    <row r="26" spans="1:18" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="40"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="40"/>
+    </row>
+    <row r="27" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="40"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="40"/>
+    </row>
+    <row r="28" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="40"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="40"/>
+    </row>
+    <row r="29" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="40"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="40"/>
+    </row>
+    <row r="30" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="37"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="37"/>
+    </row>
+    <row r="31" spans="1:18" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="33">
+        <v>2006</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="36">
+        <v>23.1</v>
+      </c>
+      <c r="F31" s="33">
+        <v>22</v>
+      </c>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="32"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="32"/>
+    </row>
+    <row r="33" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="32"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="32"/>
+    </row>
+    <row r="34" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="32"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="32"/>
+    </row>
+    <row r="35" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="32"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="32"/>
+    </row>
+    <row r="36" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="32"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="32"/>
+    </row>
+    <row r="37" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="34"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="34"/>
+    </row>
+    <row r="38" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="33">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="36">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F38" s="33">
+        <v>21</v>
+      </c>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="33"/>
+    </row>
+    <row r="39" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="39"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="39"/>
+    </row>
+    <row r="40" spans="1:18" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="39"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="39"/>
+    </row>
+    <row r="41" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="39"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="39"/>
+    </row>
+    <row r="42" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="39"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="39"/>
+    </row>
+    <row r="43" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="39"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="39"/>
+    </row>
+    <row r="44" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="34"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="34"/>
+    </row>
+    <row r="45" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="33">
+        <v>2018</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="36">
+        <v>29</v>
+      </c>
+      <c r="F45" s="33">
+        <v>21</v>
+      </c>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="33"/>
+    </row>
+    <row r="46" spans="1:18" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="32"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="32"/>
+    </row>
+    <row r="47" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="32"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="32"/>
+    </row>
+    <row r="48" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="32"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="32"/>
+    </row>
+    <row r="49" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="32"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="32"/>
+    </row>
+    <row r="50" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="32"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="32"/>
+    </row>
+    <row r="51" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="34"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="34"/>
+    </row>
+    <row r="52" spans="1:18" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="22">
+        <v>8.9</v>
+      </c>
+      <c r="F52" s="33">
+        <v>21</v>
+      </c>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="33"/>
+    </row>
+    <row r="53" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="13">
+        <v>13.1</v>
+      </c>
+      <c r="F53" s="39"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="39"/>
+    </row>
+    <row r="54" spans="1:18" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="39"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="39"/>
+    </row>
+    <row r="55" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="39"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="39"/>
+    </row>
+    <row r="56" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="39"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="39"/>
+    </row>
+    <row r="57" spans="1:18" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="39"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="39"/>
+    </row>
+    <row r="58" spans="1:18" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="34"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="R45:R51"/>
+    <mergeCell ref="R52:R58"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="P10:P15"/>
+    <mergeCell ref="P24:P30"/>
+    <mergeCell ref="P31:P37"/>
+    <mergeCell ref="P38:P44"/>
+    <mergeCell ref="P45:P51"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="R10:R15"/>
+    <mergeCell ref="R17:R23"/>
+    <mergeCell ref="R24:R30"/>
+    <mergeCell ref="R31:R37"/>
+    <mergeCell ref="R38:R44"/>
+    <mergeCell ref="C52:C58"/>
+    <mergeCell ref="D52:D58"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="F38:F44"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="F45:F51"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="D31:D37"/>
+    <mergeCell ref="E31:E37"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>